--- a/meta/15-a-1.xlsx
+++ b/meta/15-a-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>15.a Мобилизовать и значительно увеличить финансовые ресурсы из всех источников в целях сохранения и рационального использования биоразнообразия и экосистем</t>
   </si>
   <si>
-    <t>15.a.1 Объем официальной помощи в целях развития и государственных расходов, выделяемых на сохранение и рациональное использование биоразнообразия и экосистем</t>
-  </si>
-  <si>
     <t>Министерство финансов Кыргызской Республики</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   <si>
     <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io
 http://www/amp.gov.kg http://www.oecd.org/dac/stats/methodology.htm</t>
+  </si>
+  <si>
+    <t>15.a.1 a) Объем официальной помощи в целях развития, выделяемой на сохранение и рациональное использование биоразнообразия; и b) поступления, полученные вследствие использования экономических инструментов сохранения биоразнообразия, и мобилизованное с помощью таких инструментов финансирование</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,12 +592,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
